--- a/Analyzed/try6/data_2021.xlsx
+++ b/Analyzed/try6/data_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>67.94187543224474</v>
       </c>
       <c r="N2">
-        <v>194.572</v>
+        <v>502.936</v>
       </c>
       <c r="O2">
-        <v>1031.51</v>
+        <v>-118.49</v>
       </c>
       <c r="P2">
-        <v>519.551712</v>
+        <v>425.6432509310111</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -571,28 +576,31 @@
         <v>6</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC2">
         <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -638,13 +646,13 @@
         <v>58.76227941177689</v>
       </c>
       <c r="N3">
-        <v>113.512</v>
+        <v>469.5600000000001</v>
       </c>
       <c r="O3">
-        <v>1322.59</v>
+        <v>-177.41</v>
       </c>
       <c r="P3">
-        <v>476.7120216</v>
+        <v>364.0032467021055</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -662,28 +670,31 @@
         <v>6</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>59.69404479865618</v>
       </c>
       <c r="N4">
-        <v>126.364</v>
+        <v>422.2400000000001</v>
       </c>
       <c r="O4">
-        <v>1184.03</v>
+        <v>-165.97</v>
       </c>
       <c r="P4">
-        <v>484.8987672</v>
+        <v>379.1239653417819</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -753,28 +764,31 @@
         <v>8</v>
       </c>
       <c r="V4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>6</v>
+      </c>
+      <c r="Z4">
+        <v>6</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>6</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
         <v>8</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>2</v>
-      </c>
-      <c r="Z4">
-        <v>4</v>
-      </c>
-      <c r="AA4">
-        <v>2</v>
-      </c>
-      <c r="AB4">
-        <v>4</v>
-      </c>
-      <c r="AC4">
-        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>70.94271435550357</v>
       </c>
       <c r="N5">
-        <v>234.528</v>
+        <v>629.3840000000001</v>
       </c>
       <c r="O5">
-        <v>1377.19</v>
+        <v>-172.81</v>
       </c>
       <c r="P5">
-        <v>444.0750048</v>
+        <v>354.1281386639753</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -850,22 +864,25 @@
         <v>1</v>
       </c>
       <c r="X5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>2</v>
       </c>
       <c r="AA5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB5">
         <v>2</v>
       </c>
       <c r="AC5">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>77.23486451455979</v>
       </c>
       <c r="N6">
-        <v>134.904</v>
+        <v>448.5040000000001</v>
       </c>
       <c r="O6">
-        <v>1344.44</v>
+        <v>-155.56</v>
       </c>
       <c r="P6">
-        <v>475.4230632</v>
+        <v>356.0309285807894</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -935,10 +952,10 @@
         <v>2</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -947,16 +964,19 @@
         <v>3</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA6">
         <v>3</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>64.39339125132011</v>
       </c>
       <c r="N7">
-        <v>42.05599999999999</v>
+        <v>546.3920000000001</v>
       </c>
       <c r="O7">
-        <v>1413.61</v>
+        <v>-236.39</v>
       </c>
       <c r="P7">
-        <v>451.8551088</v>
+        <v>337.0797533954885</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1032,21 +1052,24 @@
         <v>3</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA7">
         <v>4</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
         <v>2</v>
       </c>
     </row>
@@ -1093,13 +1116,13 @@
         <v>75.4536226107664</v>
       </c>
       <c r="N8">
-        <v>114.436</v>
+        <v>466.312</v>
       </c>
       <c r="O8">
-        <v>1309.6</v>
+        <v>-190.4</v>
       </c>
       <c r="P8">
-        <v>463.1357736</v>
+        <v>347.1111454987567</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1120,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1129,15 +1152,18 @@
         <v>1</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA8">
         <v>3</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
         <v>1</v>
       </c>
     </row>
@@ -1184,13 +1210,13 @@
         <v>69.51938473286071</v>
       </c>
       <c r="N9">
-        <v>139.524</v>
+        <v>619.248</v>
       </c>
       <c r="O9">
-        <v>1688.14</v>
+        <v>-261.86</v>
       </c>
       <c r="P9">
-        <v>466.8522912</v>
+        <v>344.0926121090288</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,28 +1234,31 @@
         <v>2</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC9">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1275,13 +1304,13 @@
         <v>82.384531885217</v>
       </c>
       <c r="N10">
-        <v>-1.736000000000011</v>
+        <v>441.0000000000001</v>
       </c>
       <c r="O10">
-        <v>1366.39</v>
+        <v>-183.61</v>
       </c>
       <c r="P10">
-        <v>412.5509064</v>
+        <v>288.0967921438075</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1299,10 +1328,10 @@
         <v>7</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -1320,6 +1349,9 @@
         <v>1</v>
       </c>
       <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
         <v>1</v>
       </c>
     </row>
@@ -1366,13 +1398,13 @@
         <v>98.6521295117</v>
       </c>
       <c r="N11">
-        <v>50.00800000000002</v>
+        <v>458.8640000000001</v>
       </c>
       <c r="O11">
-        <v>1503</v>
+        <v>-197</v>
       </c>
       <c r="P11">
-        <v>466.6616064</v>
+        <v>353.1151301435443</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1390,10 +1422,10 @@
         <v>9</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X11">
         <v>4</v>
@@ -1412,6 +1444,9 @@
       </c>
       <c r="AC11">
         <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
